--- a/data/trans_orig/P14C18-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C18-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1C3196F-7FB2-4B90-A7D0-D1C2DE251C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0AB0999-B910-4734-AB15-D3F12BE7A252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7654C77F-B568-423A-80EC-ACFCB0AA0B6E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CEA0C01F-53BE-4869-BE99-3BFBECCB0A70}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -83,16 +83,16 @@
     <t>93,07%</t>
   </si>
   <si>
-    <t>78,9%</t>
+    <t>78,29%</t>
   </si>
   <si>
     <t>88,25%</t>
   </si>
   <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -110,16 +110,16 @@
     <t>3,59%</t>
   </si>
   <si>
-    <t>18,86%</t>
+    <t>19,8%</t>
   </si>
   <si>
     <t>8,89%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,13 +134,13 @@
     <t>3,34%</t>
   </si>
   <si>
-    <t>17,61%</t>
+    <t>18,29%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>14,39%</t>
+    <t>14,69%</t>
   </si>
   <si>
     <t>100%</t>
@@ -152,67 +152,67 @@
     <t>51,62%</t>
   </si>
   <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
   </si>
   <si>
     <t>77,22%</t>
   </si>
   <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
   </si>
   <si>
     <t>70,04%</t>
   </si>
   <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
   </si>
   <si>
     <t>36,58%</t>
   </si>
   <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
   </si>
   <si>
     <t>14,03%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
   </si>
   <si>
     <t>20,35%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
   </si>
   <si>
     <t>11,81%</t>
   </si>
   <si>
-    <t>47,76%</t>
+    <t>49,75%</t>
   </si>
   <si>
     <t>8,75%</t>
   </si>
   <si>
-    <t>28,02%</t>
+    <t>26,23%</t>
   </si>
   <si>
     <t>9,61%</t>
@@ -221,7 +221,7 @@
     <t>3,0%</t>
   </si>
   <si>
-    <t>26,55%</t>
+    <t>26,35%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -230,55 +230,55 @@
     <t>60,31%</t>
   </si>
   <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
   </si>
   <si>
     <t>78,6%</t>
   </si>
   <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
   </si>
   <si>
     <t>70,8%</t>
   </si>
   <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
   </si>
   <si>
     <t>39,69%</t>
   </si>
   <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
   </si>
   <si>
     <t>21,4%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
   </si>
   <si>
     <t>29,2%</t>
   </si>
   <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -299,13 +299,13 @@
     <t>93,62%</t>
   </si>
   <si>
-    <t>71,06%</t>
+    <t>68,83%</t>
   </si>
   <si>
     <t>95,32%</t>
   </si>
   <si>
-    <t>79,03%</t>
+    <t>78,12%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -320,13 +320,13 @@
     <t>6,38%</t>
   </si>
   <si>
-    <t>28,94%</t>
+    <t>31,17%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>20,97%</t>
+    <t>21,88%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -338,13 +338,13 @@
     <t>91,43%</t>
   </si>
   <si>
-    <t>65,01%</t>
+    <t>58,67%</t>
   </si>
   <si>
     <t>92,01%</t>
   </si>
   <si>
-    <t>65,1%</t>
+    <t>67,32%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -353,13 +353,13 @@
     <t>8,57%</t>
   </si>
   <si>
-    <t>34,99%</t>
+    <t>41,33%</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>34,9%</t>
+    <t>32,68%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -383,10 +383,10 @@
     <t>77,86%</t>
   </si>
   <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -404,10 +404,10 @@
     <t>13,46%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
   </si>
   <si>
     <t>13,05%</t>
@@ -419,7 +419,7 @@
     <t>8,68%</t>
   </si>
   <si>
-    <t>27,71%</t>
+    <t>25,25%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -428,46 +428,43 @@
     <t>95,59%</t>
   </si>
   <si>
-    <t>80,47%</t>
+    <t>81,37%</t>
   </si>
   <si>
     <t>71,77%</t>
   </si>
   <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
   </si>
   <si>
     <t>77,26%</t>
   </si>
   <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -476,16 +473,19 @@
     <t>8,05%</t>
   </si>
   <si>
-    <t>17,46%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -494,127 +494,127 @@
     <t>81,79%</t>
   </si>
   <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
   </si>
   <si>
     <t>76,12%</t>
   </si>
   <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
   </si>
   <si>
     <t>77,35%</t>
   </si>
   <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>26,94%</t>
+    <t>20,76%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
   </si>
   <si>
     <t>13,6%</t>
   </si>
   <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>46,98%</t>
+    <t>40,73%</t>
   </si>
   <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
   </si>
   <si>
     <t>81,64%</t>
   </si>
   <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
   </si>
   <si>
     <t>78,71%</t>
   </si>
   <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
   </si>
   <si>
     <t>79,42%</t>
   </si>
   <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
+    <t>22,78%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
   </si>
   <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>18,25%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
   </si>
   <si>
     <t>4,39%</t>
@@ -623,25 +623,25 @@
     <t>1,12%</t>
   </si>
   <si>
-    <t>13,17%</t>
+    <t>12,21%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1056,7 +1056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAEC7A2-0186-467D-9F78-B64861101EC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DADAD6C-7108-486D-9B2C-2782673671EA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2482,13 +2482,13 @@
         <v>13609</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -2500,10 +2500,10 @@
         <v>12</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,7 +2524,7 @@
         <v>29</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -2533,10 +2533,10 @@
         <v>5425</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>146</v>
@@ -2882,10 +2882,10 @@
         <v>185</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H37" s="7">
         <v>32</v>
@@ -2894,13 +2894,13 @@
         <v>35556</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M37" s="7">
         <v>43</v>
@@ -2909,10 +2909,10 @@
         <v>46467</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>192</v>

--- a/data/trans_orig/P14C18-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C18-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0AB0999-B910-4734-AB15-D3F12BE7A252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACED4841-556F-4393-97D0-C41C6A67D171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CEA0C01F-53BE-4869-BE99-3BFBECCB0A70}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9DBEA613-2BA7-4529-8C9A-87AFCE527B18}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="203">
-  <si>
-    <t>Población según el tiempo de diagnóstico del mala circulación en 2015 (Tasa respuesta: 4,45%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="202">
+  <si>
+    <t>Población según el tiempo de diagnóstico del mala circulación en 2016 (Tasa respuesta: 4,45%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,397 +74,400 @@
     <t>59,78%</t>
   </si>
   <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>De 1 a 4 años</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>Ultimos 12 meses</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
     <t>16,55%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>De 1 a 4 años</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>Ultimos 12 meses</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -473,19 +476,16 @@
     <t>8,05%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
+    <t>17,22%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -494,154 +494,151 @@
     <t>81,79%</t>
   </si>
   <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
   </si>
   <si>
     <t>76,12%</t>
   </si>
   <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
   </si>
   <si>
     <t>77,35%</t>
   </si>
   <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>20,76%</t>
+    <t>20,26%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
   </si>
   <si>
     <t>13,6%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>40,73%</t>
+    <t>40,99%</t>
   </si>
   <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
   </si>
   <si>
     <t>81,64%</t>
   </si>
   <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
+    <t>89,5%</t>
   </si>
   <si>
     <t>78,71%</t>
   </si>
   <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
   </si>
   <si>
     <t>79,42%</t>
   </si>
   <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
-    <t>22,78%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
   </si>
   <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
   </si>
   <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
   </si>
   <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
+    <t>3,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1056,7 +1053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DADAD6C-7108-486D-9B2C-2782673671EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93902AAA-360A-4406-8197-CD03626F6B30}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2228,10 +2225,10 @@
         <v>111</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M24" s="7">
         <v>20</v>
@@ -2240,13 +2237,13 @@
         <v>20720</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,7 +2264,7 @@
         <v>29</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2276,13 +2273,13 @@
         <v>3582</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -2291,13 +2288,13 @@
         <v>3582</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,7 +2315,7 @@
         <v>29</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2327,13 +2324,13 @@
         <v>2311</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2342,13 +2339,13 @@
         <v>2311</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,7 +2401,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2416,10 +2413,10 @@
         <v>19317</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -2431,13 +2428,13 @@
         <v>48388</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M28" s="7">
         <v>59</v>
@@ -2446,13 +2443,13 @@
         <v>67705</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,13 +2464,13 @@
         <v>890</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -2482,7 +2479,7 @@
         <v>13609</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>139</v>
@@ -2497,13 +2494,13 @@
         <v>14499</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,7 +2521,7 @@
         <v>29</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -2533,10 +2530,10 @@
         <v>5425</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>146</v>
@@ -2831,10 +2828,10 @@
         <v>176</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H36" s="7">
         <v>167</v>
@@ -2843,13 +2840,13 @@
         <v>193641</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M36" s="7">
         <v>231</v>
@@ -2858,13 +2855,13 @@
         <v>257397</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,10 +2876,10 @@
         <v>10911</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>186</v>
@@ -2966,7 +2963,7 @@
         <v>200</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,7 +3019,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
